--- a/data/hotels_by_city/Dallas/Dallas_shard_350.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_350.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="811">
   <si>
     <t>STR#</t>
   </si>
@@ -180,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Ken B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r531841592-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -201,6 +204,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Loouis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r569391192-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Angel J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r561756477-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>rossharris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r553450432-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>This is an airport hotel. It is dated but very close to the South terminals at DFW. The check in at front desk was fast and efficient and we were given the rooms that we requested. We only stayed one night and did not even get a chance to enjoy the breakfast. More</t>
   </si>
   <si>
+    <t>pfafftonian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r540751706-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>I was in Dallas for some business meetings. My usual hotel was not on my company's list of "blessed hotels", so I picked this Holiday Inn Express kind of at random. Everything was fine - not outstanding, but acceptable.My room was clean and spacious. The TV and wifi worked well. The bathroom was well-equipped. Lighting throughout was adequate (and that's a big deal for me). Staff were okay. Breakfast was a bit better than normal free breakfasts at hotels.The king size bed in my room was not particularly comfortable. The pillows all had cases labeled "soft" and "firm" (or something to that effect). I found the soft pillows to be major soft, and the firm ones to be about what I would expect a soft pillow to be like. As one who likes a firm pillow, I wasn't impressed.I would stay at this hotel again for a one-night trip, but for a longer trip I will look for something else.More</t>
   </si>
   <si>
+    <t>doctall41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r539368988-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>Stayed here for its close proximity to DFW Airport because of an early morning flight. Check in was quick, Gabriel was very energetic and helpful. Property is ok, not new and clean, but worn and old. Room was large and comfortable.</t>
   </si>
   <si>
+    <t>JTReep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r536246385-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>The only reason I rated this hotel a 1 star is due to front desk clerk Gabriel. The hotel and room was nice! I won't bore you with the details, so I will just say we had a long miserable flight travel day and finally arrived in DFW around 9:30 pm. Friends of ours called the hotel and got a shuttle to pick us up. We had to run to customer service to see where our luggage would be. it took all of 5 minutes. The shuttle driver picked up our friends and took off without us. We called the hotel and spoke to Gabriel. He told us where to go. We sat there for 30-40 minutes and never saw the Holiday Inn shuttle We called Gabriel back to let him know we had not seen the shuttle. He could not figure out where we were, got irritated with us and hung up. Once we figured out we had to go downstairs to where the hotel shuttles pick up, we called him back. At this time it was after 11pm. Gabriel hung up on my wife again after he told us if we wanted to stay at his hotel, we need to find an Uber. I was livid. We saw a Holiday Inn shuttle, but found it was not the one we needed. The driver graciously took us aboard, even though this was not his hotel and dropped us off....The only reason I rated this hotel a 1 star is due to front desk clerk Gabriel. The hotel and room was nice! I won't bore you with the details, so I will just say we had a long miserable flight travel day and finally arrived in DFW around 9:30 pm. Friends of ours called the hotel and got a shuttle to pick us up. We had to run to customer service to see where our luggage would be. it took all of 5 minutes. The shuttle driver picked up our friends and took off without us. We called the hotel and spoke to Gabriel. He told us where to go. We sat there for 30-40 minutes and never saw the Holiday Inn shuttle We called Gabriel back to let him know we had not seen the shuttle. He could not figure out where we were, got irritated with us and hung up. Once we figured out we had to go downstairs to where the hotel shuttles pick up, we called him back. At this time it was after 11pm. Gabriel hung up on my wife again after he told us if we wanted to stay at his hotel, we need to find an Uber. I was livid. We saw a Holiday Inn shuttle, but found it was not the one we needed. The driver graciously took us aboard, even though this was not his hotel and dropped us off. The shuttle was sitting by the front door and luckily for Gabriel, he was not at the front desk. Gabriel has poor customer service skills and does not belong in the service industry. After traveling for almost 17 hours, he could have cared less if we made it to the hotel or not. Thank you to the other Holiday Inn driver. Manager Justin needs to stick Gabriel on a bus outta town!More</t>
   </si>
   <si>
+    <t>Floyd F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r534530128-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>This Holiday Inn Express did have a decent breakfast for free, and the rooms were decent ; however, the staff had a few issues. First of all they have a bad habit of charging you for your entire reservation that you set. IE, if you make a reservation for two weeks you're paying two weeks in advance to the front desk. This is pretty uncommon for IHG Network hotels, charging you that far in advance. Also they overcharged me on my bill twice. I advised the front desk that I would be checking out early, and they charged me anyways. I advised them 48 hours early, and they still kept charging me. The manager was very helpful though. He had them reverse the charges, which they did go back in my account for 24 hours, then the guy that does the accounting who is extremely unprofessional in my opinion, purposely charge me again. It took me 72 hours past that to get the money released. The manager did apologize for his actions and offered me some priority points for my trouble.More</t>
   </si>
   <si>
+    <t>Sean D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r529909345-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>Good location, just south of the airport.  I believe it took me 10 minutes to get to this location from E gate.  The folks at the front desk were very nice and the hotel was very clean.  Parking is a little weird, but all was fine.  Pricing was satisfactory for location.  No major complaints at all.</t>
   </si>
   <si>
+    <t>Calgarysuntraveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r474604988-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -390,6 +420,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>kellyripper76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r469330537-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -411,12 +444,18 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>DAEsmae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r454099931-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
     <t>454099931</t>
   </si>
   <si>
+    <t>AskDickWagner1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r442891570-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
     <t>Appears to be a hotel originally from another brand, but it's still clean - if not a little worn and frayed.  Really needs a serious update to make it more like the HIE brand is in most areas.  Shuttle bus driver was great, front desk was helpful, room was "old."   It is very convenient to DFW, so that really makes it OK to stay and be at the airport gate in five minutes.  I would probably stay there again, when flying out of DFW.More</t>
   </si>
   <si>
+    <t>Greg S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r437781837-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -465,6 +507,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Carlton O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r437601888-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -480,6 +525,9 @@
     <t>good value including great room and shuttle service to and from  the airport at a good price.  Ask airline for a discount voucher. They were super helpful and provided great and Texas friendly service for all aspects of the stay.  Way better than sleeping at the airport and only 7 minutes away.</t>
   </si>
   <si>
+    <t>Judi B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r434416059-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -501,6 +549,9 @@
     <t>We were pleasantly surprised to find not only very comfortable accommodations, but the suites were nice and large.  There are nearby restaurants, but I would recommend you take a taxi if you are not driving a car as the streets leading to them cross over a freeway and are quite dark in some areas.  The manager on duty was very knowledgeable about the area and helpful. The breakfast in the morning was excellent with an assortment of fruit, juice, eggs, biscuits and gravy, cereal, pancakes, toast, rolls -- also it was very clean and had a large seating area for all the guests.  We will be back the next time we need to spend a night flying in or out of DFW!More</t>
   </si>
   <si>
+    <t>YourMomLovesToast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r432237067-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -516,6 +567,9 @@
     <t>This hotel is very convenient to the airport and rental car return center. I always stay here the night before my flight. There's a gas station near the return center and I usually have my car returned at on the bus within 20 minutes of leaving the hotel.</t>
   </si>
   <si>
+    <t>Kellybean25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r424505863-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -534,6 +588,9 @@
     <t>We were returning from our honeymoon, and we called the front desk when we arrived in the states to let them know we would have a late check-in and need the shuttle to pick us up at the airport.  We were informed that the last shuttle runs at midnight.  We told the woman on the phone our flight landed at 11:30pm, and we wanted to schedule the pick up.  We were told we would have to call back, once we had our bags in hand to schedule the shuttle.  We were told there was nothing they could do, so we would need to call a taxi or take an Uber.  When we landed in Dallas, we caught a taxi to the hotel, and spent $30 on a 4 minute ride.  A hotel with such close proximity to the airport should be a little more accommodating to travelers.  We will not be staying there again.More</t>
   </si>
   <si>
+    <t>Eduardo P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r420626203-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -552,6 +609,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Jane T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r419599007-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -570,6 +630,9 @@
     <t>We had an overnight layover and stayed 1 night. The hotel is clean, room was spacious and as described and the service was very good.Few things to point out: - you must call and book the shuttle pick up. We didn't now and we waited at the hotel shuttle stop for 10 - 15 min- shuttles depart from hotel on the hr every hr promptly and they have good early morning times we took the 4 am shuttle - free shuttle also includes anything within 1 mile of hotel. We got dropped off at the West Irving TRE station and headed to downtown DallasWe really had an enjoyable layover here, the only disappointment was that breakfast doesn't start until 6:30 am which seems a bit late for an airport hotel.More</t>
   </si>
   <si>
+    <t>22Traveler87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r416495236-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -585,6 +648,9 @@
     <t>This stay was great. The rooms are one of the biggest I have stayed in. Small kitchen area, nice size living room and a good size bedroom area. The service was great from the time I stepped in the lobby to my 4:30am shuttle to the airport. This will be my new stop flying out of the DFW area.</t>
   </si>
   <si>
+    <t>TDNYC22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r414945110-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -606,6 +672,9 @@
     <t>Due to immigration and American Airlines mess up, I was in Dallas for a night. With no money and a very packed suitcase, the airline gave all of us on the Mexico City flight a discount coupon for Holiday Inn Express South. A transit bus picks you up from the airport and drops you off. Chris checked me in, albeit in my emotional state. Very very nice guy. Took my friends credit card details as I had no money. Gave me water and pre pasted tooth brushes!The room was huge, grey shower and a great bed!Breakfast was included. Buffet but with everything you could ever need ! The transit van takes you back at the time you need next day. Everyone was friendly and helpful. Thank you Chris for making my night bearable!More</t>
   </si>
   <si>
+    <t>Connie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r413702088-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -624,6 +693,9 @@
     <t>Due to our flight cancellation we stayed here. The carpet next to the window beside of the bed was very wet like it was coming in around the air conditioner. While checking in the front desk clerk answered the phone at least 20 times helping the people on the phone instead of the couple that was ahead of us. I finally ask if we could please check in next. He continued to help others on the phone instead of helping the two in line. We were only going to get 4 hours sleep and then this cut 30 minutes off. The shuttle was on time so that was the one good thing. Not my favorite Holiday Inn Express.More</t>
   </si>
   <si>
+    <t>RoadScholar0411</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r410077795-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -642,6 +714,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Shannon C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r390487384-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -663,6 +738,9 @@
     <t>I booked this hotel because of the free airport shuttle and free breakfast.  When I asked information about the shuttle, they asked if I was leaving a car.  Yes, I was.  Then they wanted to raise my rate $60.  I didn't see anything about paying to park In their free parking lot.  With the large number of foot traffic walking by outside, I decided to park at the airport and pay them the $60.We needed to leave for the airport at 6:45am due to American Airlines changing our flight time earlier.  The breakfast wasn't served at this hotel until 7:00am.  There were locks on the yogurts even.  So I drove to the Walmart across the street and purchased donuts.  The room was large with a kitchenette, office area, sofa bed, and two beds.  For one night, it was perfect.  They were able to accommodate our two rooms next to each other.THe pool was outside and it was very cold.  That was a bummer for me, but the kids got in anyways.I thought this information would be helpful because we had to pay for parking and breakfast even though their description clearly says free parking, free airport shuttle, and free breakfast.  It raised our expenses nearly $100.More</t>
   </si>
   <si>
+    <t>SachitMurthy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r386228253-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -681,6 +759,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>traveltime_0006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r385466662-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -711,6 +792,9 @@
     <t xml:space="preserve">I unexpectedly had to stay the night and booked last minute. Room was nice and clean, staff very friendly, great breakfast selection.  Free shuttle within a mile was great too. I was waiting for a tour bus to be repaired at Prevost and the repairs were taking longer than expected so I asked for a later than 11 checkout. I was pleasantly surprised when they said I could check out at two. Helped tremendously. </t>
   </si>
   <si>
+    <t>PilgrimFlyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r382984206-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -729,6 +813,9 @@
     <t>Needed to stay unexpectedly overnight near DFW since airport was closed for several hours due to weather. Missed connection and had to wait until next day to continue. Hotel had reasonable rates (others had raised their rate due to the high demand). Shuttle from airport was OK -- had to wait longer than it should be. Returning to airport was on schedule. In both cases driver was helpful, courteous, and the ride relatively quick. "Executive" room (same price as regular room) was surprisingly large and comfortable, including simple kitchenette. Electric plugs for tech were not as convenient or plentiful as desired, but WiFi was great. Evening food options were limited, only Red Lobster was convenient. Free breakfast was OK. Recommended for stay near airport before/after flight.More</t>
   </si>
   <si>
+    <t>BYamamoto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r381465963-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -744,6 +831,9 @@
     <t xml:space="preserve">Great location to the Airport DFW . Good size room,indoor pool, good food in close proximity, great free breakfast and drinks. and walking distance to Tarant College. The staff  was attentive to your needs and good parking. </t>
   </si>
   <si>
+    <t>michael_smith56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r380082746-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -759,6 +849,9 @@
     <t>Located not far from DFW, this hotel offers spacious rooms with sitting areas and a microwave and refrigerator. The room layout is a bit odd with the toilet room enclosed with the bath and toilet, and the vanity sink located close to the sleeping area. With two full beds the sleeping area is small with one of the beds close to the heating, air conditioning unit which makes it easy to bump into. The staff was good but left the dirty linens in the desk chair instead of removing them. Breakfast was a typical buffet, nothing special.</t>
   </si>
   <si>
+    <t>Mark D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r379912565-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -771,6 +864,9 @@
     <t>Needed to find a hotel quick. Missed connecting flight due to weather. I was surprised how quick the shuttle came. every thing went smooth. Large clean rooms, good showers Large nice dinning area with breakfast.</t>
   </si>
   <si>
+    <t>yybarreiro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r379344170-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -786,6 +882,9 @@
     <t xml:space="preserve">We missed our connecting flight coming back from vacation due to weather delays &amp; long lines at customs, security.... The airport kindly made the reservation &amp; to our surprise everything went smoothly. We were set up in a suite, breakfast area was nice &amp; clean, wifi standard, shuttle on schedule. Really enjoyed the stay. </t>
   </si>
   <si>
+    <t>tommyontheroadagain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r377947910-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -801,6 +900,9 @@
     <t xml:space="preserve">Stopped in here and had the most fabulous service from the staff. Cynthia was extremely helpful getting us to and from the airport safely. Courtesy and professionalism here is way above and beyond here. I will definitely be staying here on future visits to this area. </t>
   </si>
   <si>
+    <t>James G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r376823601-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -816,6 +918,9 @@
     <t>We can't give a complete review of this hotel because we arrived late at night and had to leave for an airport connection before the free breakfast was served.But we can say that our room was spacious (for the three of us in our family), the beds were comfortable, and this large hotel was exceptionally quiet, so we were very contect. We glanced at the breakfast buffet before we left, and it looked good and very complete.</t>
   </si>
   <si>
+    <t>Barbara P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r373846021-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -834,6 +939,9 @@
     <t>I arrived at the DFW South Holiday Inn Express and discovered my reservation was really for the DFW North Holiday Inn Express. The staff at the front desk was very accommodating and changed my reservation for me and matched the less expensive rate on my reservation. I had a large room with a king size bed, desk, small kitchen with a fridge, microwave, eating table and 2 chairs, plus an easy chair and ottoman. Except for a stain on the arm of the easy chair, the room was very neat and clean. The room rate also included the buffet breakfast that includes eggs, sausage, biscuits, yogurt, cereals, juices, coffee, and various breads. Since the hotel is close to the DFW airport and the freeway, air traffic and street traffic noise were a small annoyance. There is a shopping mall close by and also many restaurants within a few blocks.More</t>
   </si>
   <si>
+    <t>fedxpilotcapt01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r373501372-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -849,6 +957,9 @@
     <t>chris is absolutely great. if he doesnt have the answer he will get. i love this hotel. i will only stay at the holiday inn express dfw south. there r several restaurants in the area and a mall. airport shuttle fast and always greeted with a smile handshake and a big howdy</t>
   </si>
   <si>
+    <t>jef-ind</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r370788977-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -864,6 +975,9 @@
     <t>Chose this largely due to proximity to DFW. I frequently stay in HIEs and found this one to be above average in most ways. Room was large and roomy and very clean and orderly. Breakfast was nice and central areas of the hotel were a bit nicer than the average. Staff was very helpful and friendly. For a basic stay, this is a good place. Easy access to the Airport Expressway and George Bush Turnpike. 5-10 minutes to DFW. 25-30 minutes to downtown Dallas in light traffic. Remarkably quiet for being right under the landing pattern for DFW.</t>
   </si>
   <si>
+    <t>SunnyRayAlmonte</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r363676919-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -882,6 +996,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Nama5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r336300306-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1026,9 @@
     <t>The hotel is really nice, clean, but a little loud if your neighbors are loud. Room was nice with two full beds and pullout couch. We did use the business area to print our boarding passes. Hotel is within walking distance of Denny's. Early morning coffee was available just off the lobby as we had an early departure. Had hoped for a toaster or muffin as it was the start of a long day, but no such luck.More</t>
   </si>
   <si>
+    <t>1944Larry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r330414968-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1047,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>JBDWINE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r328269942-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1086,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Tiffany R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r325496587-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1104,9 @@
     <t xml:space="preserve">This is your typical Holiday Inn Express. Decent breakfast in the morning. Clean rooms. The outdoor pool is nice but freezing even in hot weather. The bathroom fan is loud. The front desk staff are nice. Hotel is within walking distance of places to eat, a walmart, and a nice Catholic church. </t>
   </si>
   <si>
+    <t>jonbeerotten</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r325355927-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1122,9 @@
     <t>We stayed at this hotel as we were traveling between clients and it was close to the airport. Matt made us feel right at home and took care of everything for us, he helped us with printing our boarding passes, getting our rental car back to the rental location and much more. It is people like him who make a long day end on the right note. The hotel was very clean and was quiet inside. This just became my hotel of choice when staying in Dallas.</t>
   </si>
   <si>
+    <t>Yaziyaz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r321929838-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1149,9 @@
     <t>Old style room that is not convenient for a single occupant. TV sits in the middle of the room so that there is a poor view from any direction. The sink is outside the bathroom and the mirror is positioned directly across from the bed and the Windows next to the bed. This means light is reflecting from the mirror onto the bed all night long. Outlets are located in inconvenient spots. Full length mirror is wedged behind the dresser that is too wide for the half wall that it sits against. Hair dryer is old and inefficient. The room/carpets were musty. As I am a frequent (at least 2x/ month) traveler, ALL of the aforementioned inconviences may have been okay, BUT, the old air conditioning unit was SO OBNOXIOUSLY LOUD that the tv couldn't even be heard above the unit when it was set on low. The room is so poorly ventilated that you need to use the unit. It will either be stale, too hot or too cold without it. It was nearly impossible to sleep and I paid $165 and $120 respectively, FOR A PLACE TO SLEEP! I will never stay at this location again.More</t>
   </si>
   <si>
+    <t>Dean S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r319887880-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1167,9 @@
     <t>Just stayed for the night while on business in Dallas. The check in was painless and smooth. Great, friendly staff ( even at midnight ).  The room was older but LARGE and clean. Everything was there for the prefect stay. The bed was comfy and the room was quiet. Next morning the breakfast was adequate.Would stay again!</t>
   </si>
   <si>
+    <t>Raven2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r318298664-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1047,6 +1185,9 @@
     <t>My family and were in Dallas visiting Six Flags.  We chose this hotel because it was the best price of the Holiday Inn Express locations in the area.  We played until late Saturday night at the park, then came back to the room to crash.  The hotel staff was very nice and the room was very comfortable.  In fact, the beds were so comfortable we didn't want to get out of them!  We had to force ourselves out of our cozy nest and down to a very pleasant free breakfast buffet the next morning.  A wonderful experience!</t>
   </si>
   <si>
+    <t>Roberta W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r300290829-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1209,9 @@
     <t>This place is definately up to par with customer service. From the moment we stepped on the shuttle at the airport to the moment we left, the staff was exceptional.  The level of service here is impeccable.  The room we stayed in was very clean and well equipped with what you will need for your stay.The only reason for the star rating of a 4 rather than a 5 is due to the fact the hotel doesn't have a restaurant on site for evening dinning.  They do offer breakfast. Which was very nice, all the food was fresh and the area was well maintained.  The pool was enjoyed by my daughter and husband while there. More</t>
   </si>
   <si>
+    <t>Redbullx2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r298572920-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1230,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Deirdre_in_Maryville</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r294271098-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1248,9 @@
     <t>Business stay.  Room was clean and comfortable. Ten minutes from airport. Very convenient.   At check in, a little short staffed, but, all in all, a very nice stay.   Didn't stay for breakfast, so I can't contribute information on that.   Would definitely return!</t>
   </si>
   <si>
+    <t>travelorfromtx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r292181096-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1266,9 @@
     <t xml:space="preserve">We really liked that the rooms had a sofa bed and refrigerator. The laundry room was clean. Our room temperature got low enough for our liking which has been very rare lately. The area does not have many good restaurants to choose from. The rooms were clean. </t>
   </si>
   <si>
+    <t>Jeffrey B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r286391492-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1287,9 @@
     <t>I am a skeptic, so when I read reviews that are “Outstanding” and they don’t mention at least something that was wrong, even if it was minor, and how the stuff dealt with it, I wonder if these people are really reviewers or staff trying to bump up the ratings.  After all, life is full of chaos, so something, even if in the end it is minor, goes wrong.  However, I can honestly say, that this visit, was perfect.  Our room was large and had all kinds of things that hotels of the same cost don’t have, like real dishes in the kitchenette.  The breakfast bar was full, well stocked and great.  The staff was friendly and helpful.  Absolutely everything was great!  This hotel will be the place we will be staying from now on when in the Dallas area.More</t>
   </si>
   <si>
+    <t>Celeste Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r275790587-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1308,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Ghost44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r274789985-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1338,9 @@
     <t>I stayed in a upper floor room.  The floor in the room was not level almost to the point where it was bowl shaped.  The most unusual thing I ever encountered in a HI room.Very strange but I was too tired to go back downstairs and change rooms.Everything else was typical HI Express.More</t>
   </si>
   <si>
+    <t>val p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r271752841-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1359,9 @@
     <t>I have been staying at this property now for my 3rd week soon to go into my 4th and I am sure there will be many more. Why, because I select them on purpose. EVERYONE is fantastic. Service is  their motto for sure. Never, am I met without smile and some pleasantry.The beds, well not all are comfortable, yet which bed that is not yours, is comfortable.  The housekeeping staff  keeps the rooms are impeccable.  TV service, well its OK and suits my purpose. Best of all is Valencia. She is always so sweet and kind and willing to help in any way. She represents the Brand and all that it represents , Kindness, professionalism, caring, excellence.  Thank you Valencia for making it a great stay.  See you soon. Valerie PearceMore</t>
   </si>
   <si>
+    <t>Spberg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r269820888-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1377,9 @@
     <t>Had an unexpected stop due to weather.  Picked up at airport by friendly driver and taken to hotel.  Greeted by a friendly desk clerk who was friendly and obviously enjoyed what he was doing.  Driver jumped in and helped check guests in quickly.  Breakfast was great - I like biscuits and gravy.  When I checked out I left my wedding ring on the sink.  Called back the next day.  The general manager called me back and got my ring back to me.  They wouldn't take a reward.  AMAZING!  How many places do you get great service and also get your valuables back that you accidentally left in the room?</t>
   </si>
   <si>
+    <t>leavinATL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r269407968-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1228,6 +1396,9 @@
   </si>
   <si>
     <t>March 2015</t>
+  </si>
+  <si>
+    <t>Wally R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r265363791-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
@@ -1258,6 +1429,9 @@
 3) I heard some people complain about transportation to and from the airport (shuttle pickup service). They said it was long (keep in mind. Hotel is only 4 miles from airport) so the shuttle might make a...Visited this hotel in April 2015 and the room was extremely clean, friendly staff, and there wasn't much I could talk bad about. For the price you pay here compared to Miami this place definitely wins by a long shot. I stayed here for about 8 days on a business trip and you have local mall, shopping center and really nice restaurants within walking distance. This hotel is right in the center of it all so you can't go wrong with it. Now what didn't I like about this hotel? There's got to be something right? Here are the CONS1) The hotel adviertises saying they got a fitness center but this isn't true. They do NOT have a fitness center. They have 3 treadmills in a tiny room. So you can't get your exercise (if you wish to lift weights or do any full body exercises). 2) The hotel is only 4 miles from the airport which is great right? But you'll hear the Jets fly over your head but if you have music or TV on then it won't bother you too much. (this isn't really a con as I really don't mind the Jets flying above once in a while) 3) I heard some people complain about transportation to and from the airport (shuttle pickup service). They said it was long (keep in mind. Hotel is only 4 miles from airport) so the shuttle might make a stop here and there to pick up others. But if you got a rental car like me, then you're fine. 4) There is NONE :) I've been to a lot of other hotels and this will definitely be among my top picks. I just wish they had a gym and I'd give this place 6 STARS ********** MAKE IT 10 STARS :) More</t>
   </si>
   <si>
+    <t>tek_rice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r251353287-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1285,6 +1459,9 @@
     <t>Jan 26-31, 2015Only one night into our 6 nights and if I had not used up all my airmiles to stay here we would be leaving right now.I chose this hotel for its proximity to the airport, AT&amp;T Stadium, local activities. I did read over all the reviews here on Tripadvisor but I am NOT happy at all.The hotel &amp; our room are clean.BUT:- air conditioner in our room is very noisy- the beds are double sized and seem very small- the pool (Part of the reason why I chose this hotel) is FREEZING!!!! It is never heated. So much for the fun pool time we wanted for our 12yr old.  Had I known that the pool they advertise is an ice cold water bath then I would not have booked this hotel.NOT for families!!!!More</t>
   </si>
   <si>
+    <t>Cincybearcatfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r248479233-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1301,6 +1478,9 @@
   </si>
   <si>
     <t>I stayed in this hotel a few years ago and was not impressed.  However, a lot has been done to this hotel since that last stay.  It has been modernized and updated.  Very friendly staff.  Clean property - both grounds and rooms.  The breakfast was very good - fresh, hot and well stocked.  Despite its location to the airport and freeway, it is very quiet and the room was huge with a bed, couch, chair, desk and kitchenette.  Convenient 15 minute drive to rental car facility.  Although I didn't use it, they do offer a shuttle to the airport on a consistent scheduled basis.  Wi-Fi was decent in the rooms, although slower than other Holiday Inn's I've stayed at.More</t>
+  </si>
+  <si>
+    <t>Beachkattt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r246336434-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
@@ -1326,6 +1506,9 @@
 I brought my husband with me once during the holidays that I had to work, he arrived just before me, and I had called and told the front desk staff he'd be coming an...We stay here for business several times a month for our company. The only things nice about it are the pool, breakfast, rooms spacious and have fridge/microwaves in each, and the staff is super nice. The management is the worst I've seen. The business computers are NOT USEABLE. They've known it for almost 2 years, have the most outdated browsers that won't load ANY webpage, you LITERALLY cannot even check in or print a boarding pass! The Wi-FI seems to work in only 3 of the 100+ rooms. Doesn't work/load AT ALL in most rooms. When we asked why the manager had been informed of this and still hadn't fixed it a year+ later, we were told the manager is being forced into the hotel business by his family and now opening another hotel so doesn't really care about this one. The filters for the A/C in the rooms are ATROCIOUS. I've acquired upper respiratory illness TWICE here when I slept in the bed next to the air conditioner. The A/C's are still manual so you can't get the temp right and it's NOISY because it's next to the bed. They stopped providing CONDITIONER in the rooms? You have to go downstairs and ASK for it?? I brought my husband with me once during the holidays that I had to work, he arrived just before me, and I had called and told the front desk staff he'd be coming an hour before me, which she said she would leave a note for the evening staff. When he arrived, they charged him $30 extra for being in my room!!! This has happened REPEATEDLY to other company employees! What a cheap way to make a buck. NO OTHER hotel we stay at for business has EVER done that, in fact they usually go out of their way in hospitality to accomodate our once a year spouses. What, are they using extra electricity and water? We departed too early for the breakfast but powdered/freeze dried items aren't worth $30 anyway.Every time we call for a pickup from the airport, they say they're on their way and it's up to 30 mins later. Found out one of the drivers says because people call and really aren't downstairs waiting like they claim, he waits 10 mins to leave the hotel.Like I said, the poor staff that have to work under this management are the only thing that makes this place nice.More</t>
   </si>
   <si>
+    <t>Douglas L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r245024744-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1527,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>H L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r244387750-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1359,6 +1545,9 @@
     <t>Nice hotel with large rooms, very well maintained and clean. We wondered if having carpeting up to the vanity area, which is outside of the bathroom was a good idea as the room seemed to have a slight damp carpet smell. The extraction fan in the bathroom was also quite loud.As expected, for being near an airport, aircraft noise can be heard. It wasn't an issue for us.</t>
   </si>
   <si>
+    <t>NYreporter2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r239502599-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1566,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>krb10912</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r235554552-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1395,6 +1587,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Nicnak55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r230420263-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1413,6 +1608,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>HoganHospitality</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r229077355-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +1632,9 @@
     <t>There are literally dozens of hotel choices in the DFW airport areas and this hotel stands out from the crowd.   The hotel was converted by new owners to a HI Express from a regional brand and this ownership group pays attention to details.    Yes, it meets the brand standards but it exceeds them in many ways.  This includes the guest accommodations, the restaurant and public space.   Breakfast is fresh and staff present to keep it that way.We were there for a week conducting a hotel owners certification program and we had the chance to watch the front desk staff, who were always patient, helpful in giving directions and in assisting guests in every way.  One does not expect a typical HI Express to have exceptional meeting space and this property is an exception.    The sales manager and meeting team were responsive every day to any requests and the facility was top notch.   We have used many hotels and this one is in the top tier!More</t>
   </si>
   <si>
+    <t>Bradley187</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r222522573-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +1650,9 @@
     <t xml:space="preserve">Clean rooms, newer property. Front desk staff is good, with a little room for improvement. The van driver Chris is a hoot!!!!! I always enjoy my van ride with him! Great location to activities and restaurants. I always loom forward to staying here!! </t>
   </si>
   <si>
+    <t>Tamara H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r187070442-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1668,9 @@
     <t>We were stuck at the DFW aipport because of the ice storm. The hotel bus pulled up and asked everyone if they had a room somewhere.  The driver worked to load our luggage,  book our room and helped to find us food. Everything was shut down due to the storm and the whole staff was speedy, efficient and patient. I would highly recommend this hotel.</t>
   </si>
   <si>
+    <t>Troy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r185510804-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1482,6 +1689,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>evert v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r185341886-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1710,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>peter m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r181481137-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1524,6 +1737,9 @@
     <t>Jammed with the Oklahoma Texas game crowd-  Had a late flight arrival and there was absolutely no parking wound up parking in the entrance driveway.  Room quiet clean served its purpose - not as nice as many other HI expresses Ive been in.  Next time I may just stay at the grand hyatt in the dfw terminal itself- much nicer and convenientMore</t>
   </si>
   <si>
+    <t>Guest251</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r181313601-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1539,6 +1755,9 @@
     <t>We have been staying at Holiday Inn for several weeks now. Each and every week James is ready to provide us the best service possible. He is always pleasant and professional.We will continue to stay here on future visit!</t>
   </si>
   <si>
+    <t>Pam L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r159753029-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1557,6 +1776,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>kbqhills</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r159699144-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1794,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Fred W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r158527046-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +1812,9 @@
     <t>Hard to find a quality place to stay for under $150 in the DFW airport area, however the HI Express was a great value at $114 per nite. (Add $17 tax).  Free shuttle to the airport and the breakfast buffet is excellent.  Easy on/off for rt183 or 161. Rooms were clean and large.  Wonderful bed.</t>
   </si>
   <si>
+    <t>Bard J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r157745619-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1605,6 +1833,9 @@
     <t>On our way home from vacation we wanted a hotel close to the airport and stayed at the Holiday inn. The hotel is an older design, but completely redone with elegance and style. I was quickly checked in and up to my room in minutes. What a shock! We were given a inside corner room over looking the pool. Not a room, but a mini suite. A large living area with microwave and fridge, a large bedroom with 2 beds, and a large bath. Maximum space minimum cost. The airport was not even noticeable in our room. The pool area was clean with two built in gas grills to cook on. This is more set up like a resort than a hotel. A truly great send off before coming home.More</t>
   </si>
   <si>
+    <t>Jints2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r154491670-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1623,6 +1854,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Anthony757</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r152594366-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1638,6 +1872,9 @@
     <t>I arrived in Dallas to very friendly shuttle driver who was happy to chat to me about the local area and travelling into town. He offered to take me to the station, he found out information for me and got train times. The lady on the desk was very kind and was genuinely pleased to help me with my arrangements. She check me in and offered me bottled water. The rooms here are a good size, very clean with a/c that the customer can control! (always a plus for me!) The staff were always on hand and happy to help, so well done team!</t>
   </si>
   <si>
+    <t>Eagle17NewtonMA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r151796545-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1656,6 +1893,9 @@
     <t>We had to spend unexpectedly two days waiting for a plane to depart DFW.  We reserved by phone and called to inform them that we were arriving early.  Would the room possibly be ready?  We were assured it would be.  The complimentary van arrived quickly driven by Zane, a friendly and informed young man.  An equally helpful staff member, Eric, checked us in.  The large room was attractive  had somewhat separate work, sleeping, and dining areas.  The small kitchen had a microwave, fridge and coffee maker.  Free wifi in the room, very comfortable bed, excellent heating and cooling, food TV, and total quiet--all made out stay very enjoyable.  The breakfast was complete and tasty, the van was available for trips to the local rail station, and the in-house laundromat added to our convenience and pleasure.  Other staff members, Chris and Andrew, were of great assistance. We can't say enough about the value of this experience, and how well-run his hotel is.More</t>
   </si>
   <si>
+    <t>KenS9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r151023845-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1674,6 +1914,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>John T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r145783972-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1710,6 +1953,9 @@
     <t xml:space="preserve">Great location near the airport. Very friendly staff. Free shuttle to hotel and airport. Breakfast good, hot and free. Downside, rooms are dark and air conditioning units are loud. As a Priority Clum Platinum member, there were no additional perks at this hotel as there are with others (club level, free paper at door, free room upgrade, etc.).  Would stay there again in a pinch though. </t>
   </si>
   <si>
+    <t>Mike T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r144263550-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1728,6 +1974,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>vickibrower</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r140803248-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1743,6 +1992,9 @@
     <t>I stayed at HIE south again last night and had the same positive experience I have had in the past.  The front desk staff are wonderful and the managers are friendly and helpful.   Rates are reasonable and beds/pillows are more comfortable than most HIEs I stay in elsewhere.  Highly recommend for those traveling in and out of DFW.</t>
   </si>
   <si>
+    <t>COBowden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r133945985-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1761,6 +2013,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Dajo43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r132191506-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1782,6 +2037,9 @@
     <t>I can't tell you anything about amenities because we were just there to spend the night, get a ride to the airport (DFW), and have a place to leave our vehicle while we were gone. There is not a restaurant in the hotel, but there is a Red Lobster in the parking lot that was excellent. Our rooms were huge, the beds great, and we had a small fridge, a microwave, and a coffee pot in room. There is a lot of dressing room in this hotel as well.The hotel checked on our flight, told us our gate, and took us to the airport. There was no charge to leave our vehicle there. Then, when our flight landed we called the hotel, and they sent a van to pick us up. It probably took 15-20 minutes for the driver to get there.As I said, I know nothing about the pool, etc. etc. However, I will definitely stay the next time I am going to be gone for an extended period and am flying out of DFW....Just remembered that the hotel has a 30 day limit on leaving your car.I believe the price for 2 adults was 129.00. However, when you deduct the $20.00 per day parking fee at the airport for the week we were gone, they price drops to next to nothing.More</t>
   </si>
   <si>
+    <t>DDT208</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r130795984-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1803,6 +2061,9 @@
     <t>Our flight out of Dallas had been weather delayed three times and was ultimately cancelled very late in the evening. We initially made arrangements to stay the night at a competing hotel. We were waiting for the competitors shuttle van, outside at the designated pick up point for over an hour. Then the shuttle from the Holiday Inn Express South pulled up in front of us. The driver jumped out and asked us where we were going to stay. We let him know and he immediately offered a rate that was slightly more than the competitor, but we thought it would be worth it, just judging from the enthusiasm the shuttle driver displayed while he was actually helping us! We were not disappointed at all. The staff at the desk was as helpful as the shuttle driver had been, and the room was very clean and comfortable. The next morning their shuttle got us to the airport well in advance of our departure. We're making arrangements for another stay next month!More</t>
   </si>
   <si>
+    <t>FNA77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r119241217-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1821,6 +2082,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Carrie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r119192851-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1836,6 +2100,9 @@
     <t>I would like to acknowledge the staff for their kindness. I especially want to recognize desk staff, Rhonda for her kind welcome and excellent will to assist.  The other staff member that was VERY impressive and NEVER stopped moving is, Nayhomy. Every single hotel needs to have someone like her.  Very kind, accommodating, patient and attentive to all at the breakfast service.  If I owned a business, I would try to hire her.</t>
   </si>
   <si>
+    <t>Coleman-McCreary</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r118088836-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1857,6 +2124,9 @@
     <t>This hotel was absolutley wonderful!  My husband &amp; I got stuck in DFW, when our luggage (and my overnight bag) got shipped onto TUL.  We had nothing.  The hotel put us up and provided all of the necessities we needed to get by.  The hotel desk clerk did not even charge me for the deoderant and hairspray that I tried to buy from the little shop.  Our room was very clean and comfortable. The breakfast was good, and saved us a little extra money.  We were transported back to the airport to begin our adventure home.  Thanks to the Holiday Inn Express for helping make a bad experience good...  We both recommend this hotel for stay while in DFW.More</t>
   </si>
   <si>
+    <t>Roderick D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r117845596-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1875,6 +2145,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>beachloverWorthTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r112737593-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1893,6 +2166,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>Rudy6380</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r108079017-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1909,6 +2185,9 @@
   </si>
   <si>
     <t>May 2011</t>
+  </si>
+  <si>
+    <t>aggieband</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r98184063-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
@@ -1936,6 +2215,9 @@
 Staff was friendly, efficient and very helpful. There did not appear to be too many other guests, but the ones who were there were quiet and well-behaved. I never heard a sound from any other guest during my three-night stay. My biggest mistake was not staying here for my entire stay in the Dallas area as none of the other three locations I chose came even close to this hotel...I selected this hotel because it was listed as the top-rated hotel in the area. Having lived in this area for fifteen years, I was surprised because I was not even aware this place existed. Everything about the experience was excellent. It was easy to find, surrounded by small restaurants and gas stations, near to the airport and a train station, as well as a major highway intersection. Cowboys Stadium and the Rangers Ballpark are both nearby as is Irving Mall. The hotel is about equidistant between Fort Worth and Dallas.The room was very clean, had all the necessary amenities and surprisingly quiet. I slept very well and could not have asked for a more pleasant experience, having just returned for a three-week R&amp;R from Afghanistan. Because this place is somewhat off the beaten path, there is no traffic or airport noise, despite the intersection of Highways 360 and 183 being visible from my room and the airport tower and runways being less than one mile from the hotel. Staff was friendly, efficient and very helpful. There did not appear to be too many other guests, but the ones who were there were quiet and well-behaved. I never heard a sound from any other guest during my three-night stay. My biggest mistake was not staying here for my entire stay in the Dallas area as none of the other three locations I chose came even close to this hotel in overall quality of service and comfort.More</t>
   </si>
   <si>
+    <t>Helsinki1972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r77799952-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1954,6 +2236,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>kmarsh99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r74524587-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1972,6 +2257,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>arincon05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r72033836-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -1993,6 +2281,9 @@
     <t>Our stay here was great! The room was wonderful with lots of open space. My family (hubby, 10 year old, 14 year old, and me of course) enjoyed this hotel very much. The pool wasn't that big, but served it's purpose. Everything was clean and beds were very comfortable! Property is built in front of some apartments, this was the only bad thing about the hotel. Otherwise I would have given it an excellent mark!!! Minutes away from the Galleria mall, and Six Flags. I didn't enjoy Six Flags all that much. I found it to be very dirty! For the money that the park makes they should make many upgrades.More</t>
   </si>
   <si>
+    <t>Ray G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r71712467-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -2014,6 +2305,9 @@
     <t>We stayed here for one night because we missed our connection at DFW and we were forced to stay overnight in the Dallas area.  Our airline provided us with a "distressed traveler" voucher.  We paid $59 for the night.The hotel provides a free shuttle to/from the airport, which is very convenient.  They also offer free rides to the train station that will take you into downtown Dallas.  You can also walk - about 1.5 miles away.  Because our next flight did not leave until later the following, we took avanatge of the shuttle to get to the train station in order to reach downtown.As for the room, it was fairly standard.  Our room smelled smoky (I thought you couldn't smke in hotel rooms anymore).  The hotel provided a continental breakfast, which is a nice touch.The hotel staff were very friendly.  They were extremely accomodating when it came to the shuttle.  They also freely offered directions and suggested things to do in Dallas.  They also let us check out at 2pm - no questions asked.All in all, the hotel is clean and the staff is friendly.  I recommend it for a one night stop over near DFW.More</t>
   </si>
   <si>
+    <t>ElizabethJP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r57914326-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -2029,6 +2323,9 @@
     <t>Hotel was doing renovation all day and night without posting information on their website. our first room was dirty and smelled musty. once they finally moved us two days later, they put us in a room that had been painted that very afternoon. the indoor (and only) pool was drained to be retiled without notice. Workers doing the reno were staying in the hotel and were out of control in regards to paying guests.</t>
   </si>
   <si>
+    <t>Kihei09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r36412219-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -2050,6 +2347,9 @@
     <t>We stayed here one night for a trip to Hawaii.  It's very close to the DFW Airport, but you don't hear any airplanes.  We left our car for our Hawaiin trip at the Fasttrack Parking, which is covered and is about 1 minute away.  The hotel did offer to let us leave the car there for the duration of our trip.  However, it is uncovered and it is a bit too much to ask management to be responsible for our vehicle for eight nights when we are away.The lady and the gentleman at the front desk were extremely courteous and helpful.  They gave us directions to an area which has lots of good restuarants, and also helped me with printing problems at the business center.  The room was extremely nice with two queen size beds, a sleeper sofa, nice large bathroom with walk in shower, flat screen TV, wi-fi, and microwave.  My family of four was extremely happy with the room.  The breakfast was fantastic with hot scrambled eggs,  bacon, scrumptious cinammon rolls, orange juiice, cereal, banananas, etc.  I did not check out the pool or the exercise room, but my wife did, and she was pleased with the facility.   We were very pleased with this hotel.More</t>
   </si>
   <si>
+    <t>Pro-Flyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r33154501-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -2071,6 +2371,9 @@
     <t>Newly refurbished. Very friendly and welcoming reception. Next to a number of restaurants, coutesy airport shuttle bus and only 5 minute drive to DFW rental car return centre.Breakfast is scrumptious with delicous cinnamon swirls, eggs, juices, etc.The best however was the large room with good aircon, large flat screen TV, pleasant bathroom, coffee maker, microwave, fridge and very comfortable bed.This is a noon-smoking hotel, smoking is only allowed outside by the small pool or in the car park.Wireless internet is free, however the room rate is a little more than one would expect for a standard HI Express, but this is not a standard Express.More than happy to recommend this to anyone.More</t>
   </si>
   <si>
+    <t>nanefish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r31170970-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -2098,6 +2401,9 @@
     <t>We left our car there for 3 nights while we went on a business trip and when we returned items had been stolen out of our car.  Evidently someone used a slim-jim, because there was no damage to our car.  When we informed the hotel they did not care and were very unsympathetic.More</t>
   </si>
   <si>
+    <t>LauraLauraLauraLaura</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r29938732-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -2116,6 +2422,9 @@
     <t>March 2009</t>
   </si>
   <si>
+    <t>JENLStLouis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r11488119-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
   </si>
   <si>
@@ -2132,6 +2441,9 @@
   </si>
   <si>
     <t>December 2007</t>
+  </si>
+  <si>
+    <t>huskerfan128</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d109257-r6801012-Holiday_Inn_Express_Suites_DFW_Airport_South_Hotel-Irving_Texas.html</t>
@@ -2718,8 +3030,12 @@
       <c r="A3" t="n">
         <v>31365</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
@@ -2727,7 +3043,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2736,25 +3052,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2774,15 +3090,19 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31365</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
@@ -2790,34 +3110,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
         <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2837,15 +3157,19 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31365</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>30870</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
@@ -2853,7 +3177,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2862,25 +3186,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2894,15 +3218,19 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31365</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>2757</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
@@ -2910,7 +3238,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2919,25 +3247,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2949,21 +3277,25 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31365</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
@@ -2971,7 +3303,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2980,25 +3312,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -3016,21 +3348,25 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31365</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
@@ -3038,7 +3374,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -3047,25 +3383,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
-      </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3079,15 +3415,19 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31365</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
@@ -3095,7 +3435,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -3104,25 +3444,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3138,21 +3478,25 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31365</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>48342</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
@@ -3160,7 +3504,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -3169,25 +3513,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3199,21 +3543,25 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31365</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>34747</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
@@ -3221,7 +3569,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -3230,25 +3578,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3266,15 +3614,19 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31365</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155183</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
@@ -3282,7 +3634,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -3291,25 +3643,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3327,15 +3679,19 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31365</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155184</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
@@ -3343,7 +3699,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -3352,25 +3708,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3390,15 +3746,19 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31365</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>32340</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
@@ -3406,7 +3766,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -3415,7 +3775,7 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J14" t="s"/>
       <c r="K14" t="s"/>
@@ -3432,16 +3792,17 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31365</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>37666</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
@@ -3449,7 +3810,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3458,25 +3819,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -3494,21 +3855,25 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31365</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>9509</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
@@ -3516,7 +3881,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3525,25 +3890,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3563,15 +3928,19 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31365</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>155185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
@@ -3579,7 +3948,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3588,25 +3957,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3626,15 +3995,19 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31365</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155186</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
@@ -3642,7 +4015,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3651,25 +4024,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3689,15 +4062,19 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31365</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155187</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
@@ -3705,7 +4082,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3714,25 +4091,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3746,15 +4123,19 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31365</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155188</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
@@ -3762,7 +4143,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3771,25 +4152,25 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3803,15 +4184,19 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31365</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
@@ -3819,7 +4204,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3828,22 +4213,22 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
@@ -3860,15 +4245,19 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31365</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>16589</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
@@ -3876,7 +4265,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3885,25 +4274,25 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3917,15 +4306,19 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31365</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155190</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
@@ -3933,7 +4326,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3942,25 +4335,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3980,15 +4373,19 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31365</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155191</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
@@ -3996,7 +4393,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -4005,25 +4402,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4037,15 +4434,19 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31365</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>36575</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
@@ -4053,7 +4454,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -4062,25 +4463,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4100,15 +4501,19 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31365</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>155192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
@@ -4116,7 +4521,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -4125,25 +4530,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4161,15 +4566,19 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31365</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>74340</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
@@ -4177,7 +4586,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -4186,22 +4595,22 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
@@ -4218,15 +4627,19 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31365</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155193</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
@@ -4234,7 +4647,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -4243,25 +4656,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4281,15 +4694,19 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31365</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155194</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
@@ -4297,7 +4714,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -4306,22 +4723,22 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
@@ -4342,7 +4759,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
@@ -4358,7 +4775,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4367,25 +4784,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4399,15 +4816,19 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>31365</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155195</v>
+      </c>
+      <c r="C31" t="s">
+        <v>258</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
@@ -4415,7 +4836,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4424,25 +4845,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O31" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4460,15 +4881,19 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31365</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155196</v>
+      </c>
+      <c r="C32" t="s">
+        <v>265</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
@@ -4476,7 +4901,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4485,16 +4910,16 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="K32" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
@@ -4513,15 +4938,19 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31365</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155197</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
@@ -4529,7 +4958,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4538,22 +4967,22 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O33" t="s">
         <v>53</v>
@@ -4576,15 +5005,19 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31365</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>21068</v>
+      </c>
+      <c r="C34" t="s">
+        <v>277</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
@@ -4592,7 +5025,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4601,22 +5034,22 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="J34" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s">
         <v>53</v>
@@ -4637,15 +5070,19 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>31365</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>89612</v>
+      </c>
+      <c r="C35" t="s">
+        <v>282</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
@@ -4653,7 +5090,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4662,22 +5099,22 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
@@ -4694,15 +5131,19 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>31365</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>155198</v>
+      </c>
+      <c r="C36" t="s">
+        <v>288</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
@@ -4710,7 +5151,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4719,22 +5160,22 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="J36" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
@@ -4751,15 +5192,19 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>31365</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>7909</v>
+      </c>
+      <c r="C37" t="s">
+        <v>294</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
@@ -4767,7 +5212,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4776,16 +5221,16 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="J37" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -4804,15 +5249,19 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>31365</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>22515</v>
+      </c>
+      <c r="C38" t="s">
+        <v>300</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
@@ -4820,7 +5269,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4829,22 +5278,22 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="J38" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O38" t="s">
         <v>53</v>
@@ -4867,15 +5316,19 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>31365</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155199</v>
+      </c>
+      <c r="C39" t="s">
+        <v>307</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
@@ -4883,7 +5336,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4892,25 +5345,25 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="J39" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4924,15 +5377,19 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31365</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>155200</v>
+      </c>
+      <c r="C40" t="s">
+        <v>313</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
@@ -4940,7 +5397,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4949,25 +5406,25 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="J40" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O40" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4987,15 +5444,19 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>31365</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155201</v>
+      </c>
+      <c r="C41" t="s">
+        <v>319</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
@@ -5003,7 +5464,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -5012,25 +5473,25 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5044,15 +5505,19 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>31365</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155202</v>
+      </c>
+      <c r="C42" t="s">
+        <v>326</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
@@ -5060,7 +5525,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -5069,22 +5534,22 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="J42" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="K42" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="O42" t="s">
         <v>53</v>
@@ -5099,21 +5564,25 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="X42" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="Y42" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>31365</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155203</v>
+      </c>
+      <c r="C43" t="s">
+        <v>336</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
@@ -5121,7 +5590,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -5130,25 +5599,25 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="J43" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="O43" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5162,15 +5631,19 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31365</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155204</v>
+      </c>
+      <c r="C44" t="s">
+        <v>343</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
@@ -5178,7 +5651,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -5187,25 +5660,25 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="J44" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="K44" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="L44" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="O44" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5225,7 +5698,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45">
@@ -5241,7 +5714,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5250,25 +5723,25 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="J45" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="O45" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5282,15 +5755,19 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>31365</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>8210</v>
+      </c>
+      <c r="C46" t="s">
+        <v>356</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
@@ -5298,7 +5775,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5307,25 +5784,25 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="J46" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="K46" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5339,15 +5816,19 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>31365</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>49790</v>
+      </c>
+      <c r="C47" t="s">
+        <v>362</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
@@ -5355,7 +5836,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5364,25 +5845,25 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="J47" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="K47" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="L47" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5400,15 +5881,19 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>31365</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155205</v>
+      </c>
+      <c r="C48" t="s">
+        <v>368</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
@@ -5416,7 +5901,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5425,25 +5910,25 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="J48" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="K48" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="L48" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5459,21 +5944,25 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="X48" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="Y48" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>31365</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>16996</v>
+      </c>
+      <c r="C49" t="s">
+        <v>377</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
@@ -5481,7 +5970,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5490,25 +5979,25 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="K49" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5528,15 +6017,19 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>31365</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155206</v>
+      </c>
+      <c r="C50" t="s">
+        <v>383</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
@@ -5544,7 +6037,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5553,22 +6046,22 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="J50" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="K50" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="L50" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="O50" t="s">
         <v>53</v>
@@ -5589,15 +6082,19 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>31365</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155207</v>
+      </c>
+      <c r="C51" t="s">
+        <v>389</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
@@ -5605,7 +6102,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5614,22 +6111,22 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="J51" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="K51" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="O51" t="s">
         <v>53</v>
@@ -5646,15 +6143,19 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>31365</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>155208</v>
+      </c>
+      <c r="C52" t="s">
+        <v>397</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
@@ -5662,7 +6163,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5671,25 +6172,25 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="J52" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="K52" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="L52" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5703,15 +6204,19 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>31365</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155209</v>
+      </c>
+      <c r="C53" t="s">
+        <v>404</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
@@ -5719,7 +6224,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5728,25 +6233,25 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="J53" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="K53" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5760,15 +6265,19 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>31365</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>135149</v>
+      </c>
+      <c r="C54" t="s">
+        <v>410</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
@@ -5776,7 +6285,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5785,16 +6294,16 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="J54" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="K54" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
@@ -5813,15 +6322,19 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>31365</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>416</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
@@ -5829,7 +6342,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5838,22 +6351,22 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="J55" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="K55" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="L55" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="O55" t="s">
         <v>53</v>
@@ -5876,15 +6389,19 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>31365</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155210</v>
+      </c>
+      <c r="C56" t="s">
+        <v>423</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
@@ -5892,7 +6409,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5901,22 +6418,22 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="J56" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="K56" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="O56" t="s">
         <v>53</v>
@@ -5937,15 +6454,19 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>31365</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155211</v>
+      </c>
+      <c r="C57" t="s">
+        <v>430</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
@@ -5953,7 +6474,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5962,25 +6483,25 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="J57" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="K57" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="L57" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -5996,21 +6517,25 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="X57" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="Y57" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>31365</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>155212</v>
+      </c>
+      <c r="C58" t="s">
+        <v>440</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
@@ -6018,7 +6543,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -6027,25 +6552,25 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="J58" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="K58" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="L58" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6065,15 +6590,19 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>31365</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155213</v>
+      </c>
+      <c r="C59" t="s">
+        <v>447</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
@@ -6081,7 +6610,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -6090,25 +6619,25 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="J59" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="K59" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6128,15 +6657,19 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>31365</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>155214</v>
+      </c>
+      <c r="C60" t="s">
+        <v>453</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
@@ -6144,7 +6677,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6153,22 +6686,22 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="J60" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="K60" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="L60" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="O60" t="s">
         <v>53</v>
@@ -6191,15 +6724,19 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>31365</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>155215</v>
+      </c>
+      <c r="C61" t="s">
+        <v>460</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
@@ -6207,7 +6744,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6216,25 +6753,25 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="J61" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="K61" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="L61" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6248,15 +6785,19 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>31365</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>155216</v>
+      </c>
+      <c r="C62" t="s">
+        <v>467</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
@@ -6264,7 +6805,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6273,22 +6814,22 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="J62" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="K62" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="L62" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="O62" t="s">
         <v>53</v>
@@ -6307,21 +6848,25 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="X62" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="Y62" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>31365</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>154927</v>
+      </c>
+      <c r="C63" t="s">
+        <v>477</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
@@ -6329,7 +6874,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6338,25 +6883,25 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="J63" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="K63" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="L63" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6376,15 +6921,19 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>31365</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>155217</v>
+      </c>
+      <c r="C64" t="s">
+        <v>484</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
@@ -6392,7 +6941,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6401,25 +6950,25 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="J64" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="K64" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="L64" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6437,15 +6986,19 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>31365</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>43968</v>
+      </c>
+      <c r="C65" t="s">
+        <v>492</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
@@ -6453,7 +7006,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6462,25 +7015,25 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
       <c r="J65" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="K65" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="L65" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -6500,15 +7053,19 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>31365</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>106549</v>
+      </c>
+      <c r="C66" t="s">
+        <v>499</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
@@ -6516,7 +7073,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6525,25 +7082,25 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="J66" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="K66" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="L66" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="O66" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6557,15 +7114,19 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>31365</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>155218</v>
+      </c>
+      <c r="C67" t="s">
+        <v>505</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
@@ -6573,7 +7134,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6582,25 +7143,25 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="J67" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="K67" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="L67" t="s">
-        <v>447</v>
+        <v>510</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
       <c r="O67" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -6618,15 +7179,19 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>447</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>31365</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>155219</v>
+      </c>
+      <c r="C68" t="s">
+        <v>512</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
@@ -6634,7 +7199,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6643,22 +7208,22 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="J68" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="K68" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="L68" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="O68" t="s">
         <v>53</v>
@@ -6681,15 +7246,19 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>31365</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>155220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>519</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
@@ -6697,7 +7266,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6706,25 +7275,25 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="J69" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="K69" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="L69" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6744,15 +7313,19 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>31365</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>155221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>526</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
@@ -6760,7 +7333,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6769,25 +7342,25 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="J70" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="K70" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="L70" t="s">
-        <v>465</v>
+        <v>531</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>466</v>
+        <v>532</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6805,15 +7378,19 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>467</v>
+        <v>533</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>31365</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>155222</v>
+      </c>
+      <c r="C71" t="s">
+        <v>534</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
@@ -6821,7 +7398,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6830,25 +7407,25 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
       <c r="J71" t="s">
-        <v>470</v>
+        <v>537</v>
       </c>
       <c r="K71" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="L71" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="O71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6862,15 +7439,19 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>31365</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>26936</v>
+      </c>
+      <c r="C72" t="s">
+        <v>540</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
@@ -6878,7 +7459,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6887,16 +7468,16 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>474</v>
+        <v>542</v>
       </c>
       <c r="J72" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
       <c r="K72" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="L72" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
@@ -6925,15 +7506,19 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>31365</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>18184</v>
+      </c>
+      <c r="C73" t="s">
+        <v>546</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
@@ -6941,7 +7526,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>478</v>
+        <v>547</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6950,25 +7535,25 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="J73" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="K73" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="L73" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -6982,15 +7567,19 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>31365</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>155223</v>
+      </c>
+      <c r="C74" t="s">
+        <v>553</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
@@ -6998,7 +7587,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>484</v>
+        <v>554</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -7007,22 +7596,22 @@
         <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="J74" t="s">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="K74" t="s">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="L74" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="O74" t="s">
         <v>53</v>
@@ -7049,15 +7638,19 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>488</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>31365</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C75" t="s">
+        <v>560</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
@@ -7065,7 +7658,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>490</v>
+        <v>561</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7074,22 +7667,22 @@
         <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>491</v>
+        <v>562</v>
       </c>
       <c r="J75" t="s">
-        <v>492</v>
+        <v>563</v>
       </c>
       <c r="K75" t="s">
-        <v>493</v>
+        <v>564</v>
       </c>
       <c r="L75" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="O75" t="s">
         <v>53</v>
@@ -7114,21 +7707,25 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
       <c r="X75" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="Y75" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>31365</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>155224</v>
+      </c>
+      <c r="C76" t="s">
+        <v>569</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
@@ -7136,7 +7733,7 @@
         <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="G76" t="s">
         <v>46</v>
@@ -7145,25 +7742,25 @@
         <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>499</v>
+        <v>571</v>
       </c>
       <c r="J76" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="K76" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="L76" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>489</v>
+        <v>559</v>
       </c>
       <c r="O76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7187,15 +7784,19 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>31365</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>52863</v>
+      </c>
+      <c r="C77" t="s">
+        <v>575</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
@@ -7203,7 +7804,7 @@
         <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>503</v>
+        <v>576</v>
       </c>
       <c r="G77" t="s">
         <v>46</v>
@@ -7212,25 +7813,25 @@
         <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="J77" t="s">
-        <v>505</v>
+        <v>578</v>
       </c>
       <c r="K77" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="L77" t="s">
-        <v>507</v>
+        <v>580</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>508</v>
+        <v>581</v>
       </c>
       <c r="O77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7254,15 +7855,19 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>507</v>
+        <v>580</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>31365</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>155225</v>
+      </c>
+      <c r="C78" t="s">
+        <v>582</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
@@ -7270,7 +7875,7 @@
         <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="G78" t="s">
         <v>46</v>
@@ -7279,25 +7884,25 @@
         <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>510</v>
+        <v>584</v>
       </c>
       <c r="J78" t="s">
-        <v>505</v>
+        <v>578</v>
       </c>
       <c r="K78" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
       <c r="L78" t="s">
-        <v>512</v>
+        <v>586</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="O78" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7321,15 +7926,19 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>512</v>
+        <v>586</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>31365</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>3747</v>
+      </c>
+      <c r="C79" t="s">
+        <v>588</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
@@ -7337,7 +7946,7 @@
         <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="G79" t="s">
         <v>46</v>
@@ -7346,25 +7955,25 @@
         <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>515</v>
+        <v>590</v>
       </c>
       <c r="J79" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
       <c r="K79" t="s">
-        <v>517</v>
+        <v>592</v>
       </c>
       <c r="L79" t="s">
-        <v>518</v>
+        <v>593</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="O79" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -7378,15 +7987,19 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>518</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>31365</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>155226</v>
+      </c>
+      <c r="C80" t="s">
+        <v>594</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
@@ -7394,7 +8007,7 @@
         <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>519</v>
+        <v>595</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
@@ -7403,22 +8016,22 @@
         <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="J80" t="s">
-        <v>521</v>
+        <v>597</v>
       </c>
       <c r="K80" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="L80" t="s">
-        <v>523</v>
+        <v>599</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="O80" t="s">
         <v>53</v>
@@ -7445,15 +8058,19 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>524</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>31365</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>155227</v>
+      </c>
+      <c r="C81" t="s">
+        <v>601</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
@@ -7461,7 +8078,7 @@
         <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>525</v>
+        <v>602</v>
       </c>
       <c r="G81" t="s">
         <v>46</v>
@@ -7470,22 +8087,22 @@
         <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="J81" t="s">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="K81" t="s">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="L81" t="s">
-        <v>529</v>
+        <v>606</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>530</v>
+        <v>607</v>
       </c>
       <c r="O81" t="s">
         <v>53</v>
@@ -7512,15 +8129,19 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>529</v>
+        <v>606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>31365</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>155228</v>
+      </c>
+      <c r="C82" t="s">
+        <v>608</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
@@ -7528,7 +8149,7 @@
         <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -7537,25 +8158,25 @@
         <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="J82" t="s">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="K82" t="s">
-        <v>534</v>
+        <v>612</v>
       </c>
       <c r="L82" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>530</v>
+        <v>607</v>
       </c>
       <c r="O82" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7579,15 +8200,19 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>31365</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>155229</v>
+      </c>
+      <c r="C83" t="s">
+        <v>614</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
@@ -7595,7 +8220,7 @@
         <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>536</v>
+        <v>615</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -7604,25 +8229,25 @@
         <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>537</v>
+        <v>616</v>
       </c>
       <c r="J83" t="s">
-        <v>538</v>
+        <v>617</v>
       </c>
       <c r="K83" t="s">
-        <v>539</v>
+        <v>618</v>
       </c>
       <c r="L83" t="s">
-        <v>540</v>
+        <v>619</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>530</v>
+        <v>607</v>
       </c>
       <c r="O83" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7646,15 +8271,19 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>541</v>
+        <v>620</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>31365</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>155230</v>
+      </c>
+      <c r="C84" t="s">
+        <v>621</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
@@ -7662,7 +8291,7 @@
         <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>542</v>
+        <v>622</v>
       </c>
       <c r="G84" t="s">
         <v>46</v>
@@ -7671,25 +8300,25 @@
         <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>543</v>
+        <v>623</v>
       </c>
       <c r="J84" t="s">
-        <v>544</v>
+        <v>624</v>
       </c>
       <c r="K84" t="s">
-        <v>545</v>
+        <v>625</v>
       </c>
       <c r="L84" t="s">
-        <v>546</v>
+        <v>626</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>547</v>
+        <v>627</v>
       </c>
       <c r="O84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7713,15 +8342,19 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>546</v>
+        <v>626</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>31365</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>1819</v>
+      </c>
+      <c r="C85" t="s">
+        <v>628</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
@@ -7729,7 +8362,7 @@
         <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>548</v>
+        <v>629</v>
       </c>
       <c r="G85" t="s">
         <v>46</v>
@@ -7738,25 +8371,25 @@
         <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>549</v>
+        <v>630</v>
       </c>
       <c r="J85" t="s">
-        <v>550</v>
+        <v>631</v>
       </c>
       <c r="K85" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
       <c r="L85" t="s">
-        <v>552</v>
+        <v>633</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
       <c r="O85" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7780,15 +8413,19 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>31365</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>154927</v>
+      </c>
+      <c r="C86" t="s">
+        <v>477</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
@@ -7796,7 +8433,7 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
       <c r="G86" t="s">
         <v>46</v>
@@ -7805,16 +8442,16 @@
         <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
       <c r="J86" t="s">
-        <v>557</v>
+        <v>638</v>
       </c>
       <c r="K86" t="s">
-        <v>558</v>
+        <v>639</v>
       </c>
       <c r="L86" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
@@ -7843,15 +8480,19 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>31365</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>31778</v>
+      </c>
+      <c r="C87" t="s">
+        <v>641</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
@@ -7859,7 +8500,7 @@
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>560</v>
+        <v>642</v>
       </c>
       <c r="G87" t="s">
         <v>46</v>
@@ -7868,25 +8509,25 @@
         <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="J87" t="s">
-        <v>562</v>
+        <v>644</v>
       </c>
       <c r="K87" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="L87" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>565</v>
+        <v>647</v>
       </c>
       <c r="O87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -7910,15 +8551,19 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>31365</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>155231</v>
+      </c>
+      <c r="C88" t="s">
+        <v>648</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
@@ -7926,7 +8571,7 @@
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
       <c r="G88" t="s">
         <v>46</v>
@@ -7935,25 +8580,25 @@
         <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
       <c r="J88" t="s">
-        <v>568</v>
+        <v>651</v>
       </c>
       <c r="K88" t="s">
-        <v>569</v>
+        <v>652</v>
       </c>
       <c r="L88" t="s">
-        <v>570</v>
+        <v>653</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
       <c r="O88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -7977,15 +8622,19 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>570</v>
+        <v>653</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>31365</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>155232</v>
+      </c>
+      <c r="C89" t="s">
+        <v>654</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
@@ -7993,7 +8642,7 @@
         <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>571</v>
+        <v>655</v>
       </c>
       <c r="G89" t="s">
         <v>46</v>
@@ -8002,25 +8651,25 @@
         <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>572</v>
+        <v>656</v>
       </c>
       <c r="J89" t="s">
-        <v>573</v>
+        <v>657</v>
       </c>
       <c r="K89" t="s">
-        <v>574</v>
+        <v>658</v>
       </c>
       <c r="L89" t="s">
-        <v>575</v>
+        <v>659</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>576</v>
+        <v>660</v>
       </c>
       <c r="O89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="n">
@@ -8042,15 +8691,19 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>575</v>
+        <v>659</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>31365</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>95528</v>
+      </c>
+      <c r="C90" t="s">
+        <v>661</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
@@ -8058,7 +8711,7 @@
         <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>577</v>
+        <v>662</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
@@ -8067,25 +8720,25 @@
         <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>578</v>
+        <v>663</v>
       </c>
       <c r="J90" t="s">
-        <v>579</v>
+        <v>664</v>
       </c>
       <c r="K90" t="s">
-        <v>580</v>
+        <v>665</v>
       </c>
       <c r="L90" t="s">
-        <v>581</v>
+        <v>666</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>582</v>
+        <v>667</v>
       </c>
       <c r="O90" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8109,15 +8762,19 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>583</v>
+        <v>668</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>31365</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>155233</v>
+      </c>
+      <c r="C91" t="s">
+        <v>669</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
@@ -8125,7 +8782,7 @@
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>584</v>
+        <v>670</v>
       </c>
       <c r="G91" t="s">
         <v>46</v>
@@ -8134,22 +8791,22 @@
         <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>585</v>
+        <v>671</v>
       </c>
       <c r="J91" t="s">
-        <v>586</v>
+        <v>672</v>
       </c>
       <c r="K91" t="s">
-        <v>587</v>
+        <v>673</v>
       </c>
       <c r="L91" t="s">
-        <v>588</v>
+        <v>674</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>589</v>
+        <v>675</v>
       </c>
       <c r="O91" t="s">
         <v>53</v>
@@ -8176,15 +8833,19 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>590</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>31365</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>155234</v>
+      </c>
+      <c r="C92" t="s">
+        <v>677</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
@@ -8192,7 +8853,7 @@
         <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>591</v>
+        <v>678</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
@@ -8201,22 +8862,22 @@
         <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>592</v>
+        <v>679</v>
       </c>
       <c r="J92" t="s">
-        <v>593</v>
+        <v>680</v>
       </c>
       <c r="K92" t="s">
-        <v>594</v>
+        <v>681</v>
       </c>
       <c r="L92" t="s">
-        <v>595</v>
+        <v>682</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>596</v>
+        <v>683</v>
       </c>
       <c r="O92" t="s">
         <v>53</v>
@@ -8243,15 +8904,19 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>595</v>
+        <v>682</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>31365</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>20567</v>
+      </c>
+      <c r="C93" t="s">
+        <v>684</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
@@ -8259,7 +8924,7 @@
         <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
@@ -8268,22 +8933,22 @@
         <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>598</v>
+        <v>686</v>
       </c>
       <c r="J93" t="s">
-        <v>599</v>
+        <v>687</v>
       </c>
       <c r="K93" t="s">
-        <v>600</v>
+        <v>688</v>
       </c>
       <c r="L93" t="s">
-        <v>601</v>
+        <v>689</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>596</v>
+        <v>683</v>
       </c>
       <c r="O93" t="s">
         <v>53</v>
@@ -8310,15 +8975,19 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>601</v>
+        <v>689</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>31365</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>155235</v>
+      </c>
+      <c r="C94" t="s">
+        <v>690</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
@@ -8326,7 +8995,7 @@
         <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
       <c r="G94" t="s">
         <v>46</v>
@@ -8335,25 +9004,25 @@
         <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
       <c r="J94" t="s">
-        <v>604</v>
+        <v>693</v>
       </c>
       <c r="K94" t="s">
-        <v>605</v>
+        <v>694</v>
       </c>
       <c r="L94" t="s">
-        <v>606</v>
+        <v>695</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>607</v>
+        <v>696</v>
       </c>
       <c r="O94" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8375,15 +9044,19 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>608</v>
+        <v>697</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>31365</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>155236</v>
+      </c>
+      <c r="C95" t="s">
+        <v>698</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
@@ -8391,7 +9064,7 @@
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>609</v>
+        <v>699</v>
       </c>
       <c r="G95" t="s">
         <v>46</v>
@@ -8400,25 +9073,25 @@
         <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="J95" t="s">
-        <v>611</v>
+        <v>701</v>
       </c>
       <c r="K95" t="s">
-        <v>612</v>
+        <v>702</v>
       </c>
       <c r="L95" t="s">
-        <v>613</v>
+        <v>703</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>614</v>
+        <v>704</v>
       </c>
       <c r="O95" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8438,15 +9111,19 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>613</v>
+        <v>703</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>31365</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>155237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>705</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
@@ -8454,7 +9131,7 @@
         <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>615</v>
+        <v>706</v>
       </c>
       <c r="G96" t="s">
         <v>46</v>
@@ -8463,22 +9140,22 @@
         <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>616</v>
+        <v>707</v>
       </c>
       <c r="J96" t="s">
-        <v>617</v>
+        <v>708</v>
       </c>
       <c r="K96" t="s">
-        <v>618</v>
+        <v>709</v>
       </c>
       <c r="L96" t="s">
-        <v>619</v>
+        <v>710</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>620</v>
+        <v>711</v>
       </c>
       <c r="O96" t="s">
         <v>53</v>
@@ -8505,15 +9182,19 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>619</v>
+        <v>710</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>31365</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>155238</v>
+      </c>
+      <c r="C97" t="s">
+        <v>712</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
@@ -8521,7 +9202,7 @@
         <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>621</v>
+        <v>713</v>
       </c>
       <c r="G97" t="s">
         <v>46</v>
@@ -8530,25 +9211,25 @@
         <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>622</v>
+        <v>714</v>
       </c>
       <c r="J97" t="s">
-        <v>623</v>
+        <v>715</v>
       </c>
       <c r="K97" t="s">
-        <v>624</v>
+        <v>716</v>
       </c>
       <c r="L97" t="s">
-        <v>625</v>
+        <v>717</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>626</v>
+        <v>718</v>
       </c>
       <c r="O97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -8572,15 +9253,19 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>625</v>
+        <v>717</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>31365</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>38517</v>
+      </c>
+      <c r="C98" t="s">
+        <v>719</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
@@ -8588,7 +9273,7 @@
         <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>627</v>
+        <v>720</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
@@ -8597,25 +9282,25 @@
         <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>628</v>
+        <v>721</v>
       </c>
       <c r="J98" t="s">
-        <v>629</v>
+        <v>722</v>
       </c>
       <c r="K98" t="s">
-        <v>630</v>
+        <v>723</v>
       </c>
       <c r="L98" t="s">
-        <v>631</v>
+        <v>724</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>632</v>
+        <v>725</v>
       </c>
       <c r="O98" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8639,15 +9324,19 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>633</v>
+        <v>726</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>31365</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>155239</v>
+      </c>
+      <c r="C99" t="s">
+        <v>727</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
@@ -8655,7 +9344,7 @@
         <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>634</v>
+        <v>728</v>
       </c>
       <c r="G99" t="s">
         <v>46</v>
@@ -8664,25 +9353,25 @@
         <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>635</v>
+        <v>729</v>
       </c>
       <c r="J99" t="s">
-        <v>636</v>
+        <v>730</v>
       </c>
       <c r="K99" t="s">
-        <v>637</v>
+        <v>731</v>
       </c>
       <c r="L99" t="s">
-        <v>638</v>
+        <v>732</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>639</v>
+        <v>733</v>
       </c>
       <c r="O99" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P99" t="n">
         <v>3</v>
@@ -8706,15 +9395,19 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>638</v>
+        <v>732</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>31365</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>155240</v>
+      </c>
+      <c r="C100" t="s">
+        <v>734</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
@@ -8722,7 +9415,7 @@
         <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>640</v>
+        <v>735</v>
       </c>
       <c r="G100" t="s">
         <v>46</v>
@@ -8731,25 +9424,25 @@
         <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>641</v>
+        <v>736</v>
       </c>
       <c r="J100" t="s">
-        <v>642</v>
+        <v>737</v>
       </c>
       <c r="K100" t="s">
-        <v>643</v>
+        <v>738</v>
       </c>
       <c r="L100" t="s">
-        <v>644</v>
+        <v>739</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>645</v>
+        <v>740</v>
       </c>
       <c r="O100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P100" t="s"/>
       <c r="Q100" t="s"/>
@@ -8763,15 +9456,19 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>644</v>
+        <v>739</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>31365</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>155241</v>
+      </c>
+      <c r="C101" t="s">
+        <v>741</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
@@ -8779,7 +9476,7 @@
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>646</v>
+        <v>742</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -8788,22 +9485,22 @@
         <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>647</v>
+        <v>743</v>
       </c>
       <c r="J101" t="s">
-        <v>648</v>
+        <v>744</v>
       </c>
       <c r="K101" t="s">
-        <v>649</v>
+        <v>745</v>
       </c>
       <c r="L101" t="s">
-        <v>650</v>
+        <v>746</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>651</v>
+        <v>747</v>
       </c>
       <c r="O101" t="s">
         <v>53</v>
@@ -8830,15 +9527,19 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>652</v>
+        <v>748</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>31365</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>35037</v>
+      </c>
+      <c r="C102" t="s">
+        <v>749</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
@@ -8846,7 +9547,7 @@
         <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>653</v>
+        <v>750</v>
       </c>
       <c r="G102" t="s">
         <v>46</v>
@@ -8855,25 +9556,25 @@
         <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>654</v>
+        <v>751</v>
       </c>
       <c r="J102" t="s">
-        <v>655</v>
+        <v>752</v>
       </c>
       <c r="K102" t="s">
-        <v>656</v>
+        <v>753</v>
       </c>
       <c r="L102" t="s">
-        <v>657</v>
+        <v>754</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>658</v>
+        <v>755</v>
       </c>
       <c r="O102" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -8897,15 +9598,19 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>659</v>
+        <v>756</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>31365</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>155242</v>
+      </c>
+      <c r="C103" t="s">
+        <v>757</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
@@ -8913,7 +9618,7 @@
         <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>660</v>
+        <v>758</v>
       </c>
       <c r="G103" t="s">
         <v>46</v>
@@ -8922,16 +9627,16 @@
         <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>661</v>
+        <v>759</v>
       </c>
       <c r="J103" t="s">
-        <v>662</v>
+        <v>760</v>
       </c>
       <c r="K103" t="s">
-        <v>663</v>
+        <v>761</v>
       </c>
       <c r="L103" t="s">
-        <v>664</v>
+        <v>762</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
@@ -8950,15 +9655,19 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>664</v>
+        <v>762</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>31365</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>155243</v>
+      </c>
+      <c r="C104" t="s">
+        <v>763</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
@@ -8966,7 +9675,7 @@
         <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>665</v>
+        <v>764</v>
       </c>
       <c r="G104" t="s">
         <v>46</v>
@@ -8975,22 +9684,22 @@
         <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>666</v>
+        <v>765</v>
       </c>
       <c r="J104" t="s">
-        <v>667</v>
+        <v>766</v>
       </c>
       <c r="K104" t="s">
-        <v>668</v>
+        <v>767</v>
       </c>
       <c r="L104" t="s">
-        <v>669</v>
+        <v>768</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>670</v>
+        <v>769</v>
       </c>
       <c r="O104" t="s">
         <v>53</v>
@@ -9017,15 +9726,19 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>671</v>
+        <v>770</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>31365</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>155244</v>
+      </c>
+      <c r="C105" t="s">
+        <v>771</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
@@ -9033,7 +9746,7 @@
         <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>672</v>
+        <v>772</v>
       </c>
       <c r="G105" t="s">
         <v>46</v>
@@ -9042,25 +9755,25 @@
         <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>673</v>
+        <v>773</v>
       </c>
       <c r="J105" t="s">
-        <v>674</v>
+        <v>774</v>
       </c>
       <c r="K105" t="s">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="L105" t="s">
-        <v>676</v>
+        <v>776</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>677</v>
+        <v>777</v>
       </c>
       <c r="O105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9084,15 +9797,19 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>678</v>
+        <v>778</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>31365</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>155245</v>
+      </c>
+      <c r="C106" t="s">
+        <v>779</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
@@ -9100,7 +9817,7 @@
         <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>679</v>
+        <v>780</v>
       </c>
       <c r="G106" t="s">
         <v>46</v>
@@ -9109,25 +9826,25 @@
         <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>680</v>
+        <v>781</v>
       </c>
       <c r="J106" t="s">
-        <v>681</v>
+        <v>782</v>
       </c>
       <c r="K106" t="s">
-        <v>682</v>
+        <v>783</v>
       </c>
       <c r="L106" t="s">
-        <v>683</v>
+        <v>784</v>
       </c>
       <c r="M106" t="n">
         <v>2</v>
       </c>
       <c r="N106" t="s">
-        <v>684</v>
+        <v>785</v>
       </c>
       <c r="O106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P106" t="n">
         <v>2</v>
@@ -9149,21 +9866,25 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>685</v>
+        <v>786</v>
       </c>
       <c r="X106" t="s">
-        <v>686</v>
+        <v>787</v>
       </c>
       <c r="Y106" t="s">
-        <v>687</v>
+        <v>788</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>31365</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>155246</v>
+      </c>
+      <c r="C107" t="s">
+        <v>789</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
@@ -9171,7 +9892,7 @@
         <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>688</v>
+        <v>790</v>
       </c>
       <c r="G107" t="s">
         <v>46</v>
@@ -9180,25 +9901,25 @@
         <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>689</v>
+        <v>791</v>
       </c>
       <c r="J107" t="s">
-        <v>690</v>
+        <v>792</v>
       </c>
       <c r="K107" t="s">
-        <v>691</v>
+        <v>793</v>
       </c>
       <c r="L107" t="s">
-        <v>692</v>
+        <v>794</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>693</v>
+        <v>795</v>
       </c>
       <c r="O107" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9222,15 +9943,19 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>692</v>
+        <v>794</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>31365</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>155247</v>
+      </c>
+      <c r="C108" t="s">
+        <v>796</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
@@ -9238,7 +9963,7 @@
         <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>694</v>
+        <v>797</v>
       </c>
       <c r="G108" t="s">
         <v>46</v>
@@ -9247,25 +9972,25 @@
         <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>695</v>
+        <v>798</v>
       </c>
       <c r="J108" t="s">
-        <v>696</v>
+        <v>799</v>
       </c>
       <c r="K108" t="s">
-        <v>697</v>
+        <v>800</v>
       </c>
       <c r="L108" t="s">
-        <v>698</v>
+        <v>801</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>699</v>
+        <v>802</v>
       </c>
       <c r="O108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9289,15 +10014,19 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>698</v>
+        <v>801</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>31365</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>155248</v>
+      </c>
+      <c r="C109" t="s">
+        <v>803</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
@@ -9305,7 +10034,7 @@
         <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>700</v>
+        <v>804</v>
       </c>
       <c r="G109" t="s">
         <v>46</v>
@@ -9314,25 +10043,25 @@
         <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>701</v>
+        <v>805</v>
       </c>
       <c r="J109" t="s">
-        <v>702</v>
+        <v>806</v>
       </c>
       <c r="K109" t="s">
-        <v>703</v>
+        <v>807</v>
       </c>
       <c r="L109" t="s">
-        <v>704</v>
+        <v>808</v>
       </c>
       <c r="M109" t="n">
         <v>2</v>
       </c>
       <c r="N109" t="s">
-        <v>705</v>
+        <v>809</v>
       </c>
       <c r="O109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P109" t="n">
         <v>2</v>
@@ -9354,13 +10083,13 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>685</v>
+        <v>786</v>
       </c>
       <c r="X109" t="s">
-        <v>686</v>
+        <v>787</v>
       </c>
       <c r="Y109" t="s">
-        <v>706</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
